--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/F2-F2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H2">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I2">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J2">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.275247666666667</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N2">
-        <v>24.825743</v>
+        <v>26.884494</v>
       </c>
       <c r="O2">
-        <v>0.1035475654300768</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P2">
-        <v>0.1152196269592993</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q2">
-        <v>7.813966052815445</v>
+        <v>8.035449655506</v>
       </c>
       <c r="R2">
-        <v>70.32569447533899</v>
+        <v>72.319046899554</v>
       </c>
       <c r="S2">
-        <v>0.04269471630340481</v>
+        <v>0.04579923404339149</v>
       </c>
       <c r="T2">
-        <v>0.05075848195635383</v>
+        <v>0.05231639641007889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H3">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I3">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J3">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>142.063716</v>
       </c>
       <c r="O3">
-        <v>0.5925442766305059</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P3">
-        <v>0.6593368972671567</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q3">
-        <v>44.71491766271866</v>
+        <v>42.46112416295066</v>
       </c>
       <c r="R3">
-        <v>402.434258964468</v>
+        <v>382.150117466556</v>
       </c>
       <c r="S3">
-        <v>0.2443177652982016</v>
+        <v>0.242013458693249</v>
       </c>
       <c r="T3">
-        <v>0.2904621450902224</v>
+        <v>0.2764516111683139</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9442576666666667</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H4">
-        <v>2.832773</v>
+        <v>2.689991</v>
       </c>
       <c r="I4">
-        <v>0.4123198466914757</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J4">
-        <v>0.4405367670065795</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>24.2875365</v>
+        <v>0.110461</v>
       </c>
       <c r="N4">
-        <v>48.575073</v>
+        <v>0.331383</v>
       </c>
       <c r="O4">
-        <v>0.3039081579394173</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P4">
-        <v>0.225443475773544</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q4">
-        <v>22.9336925445715</v>
+        <v>0.09904636528366666</v>
       </c>
       <c r="R4">
-        <v>137.602155267429</v>
+        <v>0.891417287553</v>
       </c>
       <c r="S4">
-        <v>0.1253073650898693</v>
+        <v>0.0005645294114518652</v>
       </c>
       <c r="T4">
-        <v>0.09931613996000321</v>
+        <v>0.0006448611006612651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6827986666666668</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H5">
-        <v>2.048396</v>
+        <v>2.689991</v>
       </c>
       <c r="I5">
-        <v>0.2981510783544719</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J5">
-        <v>0.3185549111733307</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.275247666666667</v>
+        <v>9.0545855</v>
       </c>
       <c r="N5">
-        <v>24.825743</v>
+        <v>18.109171</v>
       </c>
       <c r="O5">
-        <v>0.1035475654300768</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P5">
-        <v>0.1152196269592993</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q5">
-        <v>5.650328073136445</v>
+        <v>8.118917834576832</v>
       </c>
       <c r="R5">
-        <v>50.85295265822801</v>
+        <v>48.713507007461</v>
       </c>
       <c r="S5">
-        <v>0.03087281829395763</v>
+        <v>0.04627497327794963</v>
       </c>
       <c r="T5">
-        <v>0.03670377803144388</v>
+        <v>0.03523988841649409</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.6827986666666668</v>
+        <v>0.8966636666666666</v>
       </c>
       <c r="H6">
-        <v>2.048396</v>
+        <v>2.689991</v>
       </c>
       <c r="I6">
-        <v>0.2981510783544719</v>
+        <v>0.334725143386341</v>
       </c>
       <c r="J6">
-        <v>0.3185549111733307</v>
+        <v>0.3647360854412732</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>47.354572</v>
+        <v>0.01427366666666667</v>
       </c>
       <c r="N6">
-        <v>142.063716</v>
+        <v>0.042821</v>
       </c>
       <c r="O6">
-        <v>0.5925442766305059</v>
+        <v>0.0002179339130638713</v>
       </c>
       <c r="P6">
-        <v>0.6593368972671567</v>
+        <v>0.0002284620278914037</v>
       </c>
       <c r="Q6">
-        <v>32.33363862217067</v>
+        <v>0.01279867829011111</v>
       </c>
       <c r="R6">
-        <v>291.0027475995361</v>
+        <v>0.115188104611</v>
       </c>
       <c r="S6">
-        <v>0.1766677150501558</v>
+        <v>7.294796029905071E-05</v>
       </c>
       <c r="T6">
-        <v>0.2100350067422386</v>
+        <v>8.332834572508556E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,51 +850,51 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6827986666666668</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H7">
         <v>2.048396</v>
       </c>
       <c r="I7">
-        <v>0.2981510783544719</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J7">
-        <v>0.3185549111733307</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.2875365</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N7">
-        <v>48.575073</v>
+        <v>26.884494</v>
       </c>
       <c r="O7">
-        <v>0.3039081579394173</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P7">
-        <v>0.225443475773544</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q7">
-        <v>16.583497538818</v>
+        <v>6.118898885735999</v>
       </c>
       <c r="R7">
-        <v>99.50098523290801</v>
+        <v>55.07008997162399</v>
       </c>
       <c r="S7">
-        <v>0.09061054501035841</v>
+        <v>0.03487556940433888</v>
       </c>
       <c r="T7">
-        <v>0.07181612639964825</v>
+        <v>0.03983831066379774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,25 +903,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.073199</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H8">
-        <v>0.219597</v>
+        <v>2.048396</v>
       </c>
       <c r="I8">
-        <v>0.03196309812819735</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J8">
-        <v>0.03415047814432848</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,95 +930,95 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.275247666666667</v>
+        <v>47.354572</v>
       </c>
       <c r="N8">
-        <v>24.825743</v>
+        <v>142.063716</v>
       </c>
       <c r="O8">
-        <v>0.1035475654300768</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P8">
-        <v>0.1152196269592993</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q8">
-        <v>0.6057398539523333</v>
+        <v>32.33363862217067</v>
       </c>
       <c r="R8">
-        <v>5.451658685570999</v>
+        <v>291.002747599536</v>
       </c>
       <c r="S8">
-        <v>0.00330970099477748</v>
+        <v>0.1842903566344335</v>
       </c>
       <c r="T8">
-        <v>0.003934805352271231</v>
+        <v>0.2105145981940942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6827986666666667</v>
+      </c>
+      <c r="H9">
+        <v>2.048396</v>
+      </c>
+      <c r="I9">
+        <v>0.2548891965854188</v>
+      </c>
+      <c r="J9">
+        <v>0.2777421703171357</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.073199</v>
-      </c>
-      <c r="H9">
-        <v>0.219597</v>
-      </c>
-      <c r="I9">
-        <v>0.03196309812819735</v>
-      </c>
-      <c r="J9">
-        <v>0.03415047814432848</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>47.354572</v>
+        <v>0.110461</v>
       </c>
       <c r="N9">
-        <v>142.063716</v>
+        <v>0.331383</v>
       </c>
       <c r="O9">
-        <v>0.5925442766305059</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P9">
-        <v>0.6593368972671567</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q9">
-        <v>3.466307315828</v>
+        <v>0.07542262351866666</v>
       </c>
       <c r="R9">
-        <v>31.196765842452</v>
+        <v>0.678803611668</v>
       </c>
       <c r="S9">
-        <v>0.01893955085924258</v>
+        <v>0.0004298824004616948</v>
       </c>
       <c r="T9">
-        <v>0.02251667029987139</v>
+        <v>0.0004910540217978917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1030,22 +1030,22 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.073199</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H10">
-        <v>0.219597</v>
+        <v>2.048396</v>
       </c>
       <c r="I10">
-        <v>0.03196309812819735</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J10">
-        <v>0.03415047814432848</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.2875365</v>
+        <v>9.0545855</v>
       </c>
       <c r="N10">
-        <v>48.575073</v>
+        <v>18.109171</v>
       </c>
       <c r="O10">
-        <v>0.3039081579394173</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P10">
-        <v>0.225443475773544</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q10">
-        <v>1.7778233842635</v>
+        <v>6.182458906619333</v>
       </c>
       <c r="R10">
-        <v>10.666940305581</v>
+        <v>37.094753439716</v>
       </c>
       <c r="S10">
-        <v>0.009713846274177294</v>
+        <v>0.03523783914617517</v>
       </c>
       <c r="T10">
-        <v>0.007699002492185863</v>
+        <v>0.02683475389798435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.440053</v>
+        <v>0.6827986666666667</v>
       </c>
       <c r="H11">
-        <v>0.8801059999999999</v>
+        <v>2.048396</v>
       </c>
       <c r="I11">
-        <v>0.1921536799766066</v>
+        <v>0.2548891965854188</v>
       </c>
       <c r="J11">
-        <v>0.1368690861791935</v>
+        <v>0.2777421703171357</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.275247666666667</v>
+        <v>0.01427366666666667</v>
       </c>
       <c r="N11">
-        <v>24.825743</v>
+        <v>0.042821</v>
       </c>
       <c r="O11">
-        <v>0.1035475654300768</v>
+        <v>0.0002179339130638713</v>
       </c>
       <c r="P11">
-        <v>0.1152196269592993</v>
+        <v>0.0002284620278914037</v>
       </c>
       <c r="Q11">
-        <v>3.641547561459666</v>
+        <v>0.009746040568444444</v>
       </c>
       <c r="R11">
-        <v>21.849285368758</v>
+        <v>0.08771436511599999</v>
       </c>
       <c r="S11">
-        <v>0.01989704575000771</v>
+        <v>5.554900000956667E-05</v>
       </c>
       <c r="T11">
-        <v>0.01577000505182687</v>
+        <v>6.345353946161246E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.440053</v>
+        <v>0.221369</v>
       </c>
       <c r="H12">
-        <v>0.8801059999999999</v>
+        <v>0.664107</v>
       </c>
       <c r="I12">
-        <v>0.1921536799766066</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J12">
-        <v>0.1368690861791935</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,33 +1178,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>47.354572</v>
+        <v>8.961497999999999</v>
       </c>
       <c r="N12">
-        <v>142.063716</v>
+        <v>26.884494</v>
       </c>
       <c r="O12">
-        <v>0.5925442766305059</v>
+        <v>0.1368263930819497</v>
       </c>
       <c r="P12">
-        <v>0.6593368972671567</v>
+        <v>0.1434363050389826</v>
       </c>
       <c r="Q12">
-        <v>20.838521472316</v>
+        <v>1.983797850762</v>
       </c>
       <c r="R12">
-        <v>125.031128833896</v>
+        <v>17.854180656858</v>
       </c>
       <c r="S12">
-        <v>0.1138595633036281</v>
+        <v>0.01130694932542696</v>
       </c>
       <c r="T12">
-        <v>0.09024283861318055</v>
+        <v>0.01291591126911141</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.440053</v>
+        <v>0.221369</v>
       </c>
       <c r="H13">
-        <v>0.8801059999999999</v>
+        <v>0.664107</v>
       </c>
       <c r="I13">
-        <v>0.1921536799766066</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J13">
-        <v>0.1368690861791935</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.2875365</v>
+        <v>47.354572</v>
       </c>
       <c r="N13">
-        <v>48.575073</v>
+        <v>142.063716</v>
       </c>
       <c r="O13">
-        <v>0.3039081579394173</v>
+        <v>0.7230214505096683</v>
       </c>
       <c r="P13">
-        <v>0.225443475773544</v>
+        <v>0.7579497126911668</v>
       </c>
       <c r="Q13">
-        <v>10.6878032994345</v>
+        <v>10.482834249068</v>
       </c>
       <c r="R13">
-        <v>42.751213197738</v>
+        <v>94.345508241612</v>
       </c>
       <c r="S13">
-        <v>0.05839707092297081</v>
+        <v>0.05974846459054975</v>
       </c>
       <c r="T13">
-        <v>0.03085624251418613</v>
+        <v>0.06825058155888084</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.221369</v>
+      </c>
+      <c r="H14">
+        <v>0.664107</v>
+      </c>
+      <c r="I14">
+        <v>0.08263719499391366</v>
+      </c>
+      <c r="J14">
+        <v>0.09004631892602898</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G14">
-        <v>0.1498013333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.449404</v>
-      </c>
-      <c r="I14">
-        <v>0.0654122968492484</v>
-      </c>
-      <c r="J14">
-        <v>0.0698887574965678</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
       <c r="M14">
-        <v>8.275247666666667</v>
+        <v>0.110461</v>
       </c>
       <c r="N14">
-        <v>24.825743</v>
+        <v>0.331383</v>
       </c>
       <c r="O14">
-        <v>0.1035475654300768</v>
+        <v>0.00168654617857698</v>
       </c>
       <c r="P14">
-        <v>0.1152196269592993</v>
+        <v>0.00176802111554464</v>
       </c>
       <c r="Q14">
-        <v>1.239643134130222</v>
+        <v>0.024452641109</v>
       </c>
       <c r="R14">
-        <v>11.156788207172</v>
+        <v>0.220073769981</v>
       </c>
       <c r="S14">
-        <v>0.006773284087929154</v>
+        <v>0.0001393714454253058</v>
       </c>
       <c r="T14">
-        <v>0.008052556567403472</v>
+        <v>0.0001592037932382862</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,737 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1498013333333333</v>
+        <v>0.221369</v>
       </c>
       <c r="H15">
-        <v>0.449404</v>
+        <v>0.664107</v>
       </c>
       <c r="I15">
-        <v>0.0654122968492484</v>
+        <v>0.08263719499391366</v>
       </c>
       <c r="J15">
-        <v>0.0698887574965678</v>
+        <v>0.09004631892602898</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>47.354572</v>
+        <v>9.0545855</v>
       </c>
       <c r="N15">
-        <v>142.063716</v>
+        <v>18.109171</v>
       </c>
       <c r="O15">
-        <v>0.5925442766305059</v>
+        <v>0.1382476763167411</v>
       </c>
       <c r="P15">
-        <v>0.6593368972671567</v>
+        <v>0.09661749912641458</v>
       </c>
       <c r="Q15">
-        <v>7.093778025029332</v>
+        <v>2.0044045375495</v>
       </c>
       <c r="R15">
-        <v>63.84400222526399</v>
+        <v>12.026427225297</v>
       </c>
       <c r="S15">
-        <v>0.03875968211927781</v>
+        <v>0.01142440018524199</v>
       </c>
       <c r="T15">
-        <v>0.04608023652164375</v>
+        <v>0.008700050140172454</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.221369</v>
+      </c>
+      <c r="H16">
+        <v>0.664107</v>
+      </c>
+      <c r="I16">
+        <v>0.08263719499391366</v>
+      </c>
+      <c r="J16">
+        <v>0.09004631892602898</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.042821</v>
+      </c>
+      <c r="O16">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P16">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q16">
+        <v>0.003159747316333333</v>
+      </c>
+      <c r="R16">
+        <v>0.028437725847</v>
+      </c>
+      <c r="S16">
+        <v>1.800944726964576E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.057216462599666E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6612465000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.322493</v>
+      </c>
+      <c r="I17">
+        <v>0.2468437584284291</v>
+      </c>
+      <c r="J17">
+        <v>0.1793169270244717</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>8.961497999999999</v>
+      </c>
+      <c r="N17">
+        <v>26.884494</v>
+      </c>
+      <c r="O17">
+        <v>0.1368263930819497</v>
+      </c>
+      <c r="P17">
+        <v>0.1434363050389826</v>
+      </c>
+      <c r="Q17">
+        <v>5.925759187256999</v>
+      </c>
+      <c r="R17">
+        <v>35.554555123542</v>
+      </c>
+      <c r="S17">
+        <v>0.03377474112055408</v>
+      </c>
+      <c r="T17">
+        <v>0.02572055744333511</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.6612465000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.322493</v>
+      </c>
+      <c r="I18">
+        <v>0.2468437584284291</v>
+      </c>
+      <c r="J18">
+        <v>0.1793169270244717</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>47.354572</v>
+      </c>
+      <c r="N18">
+        <v>142.063716</v>
+      </c>
+      <c r="O18">
+        <v>0.7230214505096683</v>
+      </c>
+      <c r="P18">
+        <v>0.7579497126911668</v>
+      </c>
+      <c r="Q18">
+        <v>31.313044993998</v>
+      </c>
+      <c r="R18">
+        <v>187.878269963988</v>
+      </c>
+      <c r="S18">
+        <v>0.178473332268181</v>
+      </c>
+      <c r="T18">
+        <v>0.1359132133188613</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.6612465000000001</v>
+      </c>
+      <c r="H19">
+        <v>1.322493</v>
+      </c>
+      <c r="I19">
+        <v>0.2468437584284291</v>
+      </c>
+      <c r="J19">
+        <v>0.1793169270244717</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G16">
-        <v>0.1498013333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.449404</v>
-      </c>
-      <c r="I16">
-        <v>0.0654122968492484</v>
-      </c>
-      <c r="J16">
-        <v>0.0698887574965678</v>
-      </c>
-      <c r="K16">
+      <c r="M19">
+        <v>0.110461</v>
+      </c>
+      <c r="N19">
+        <v>0.331383</v>
+      </c>
+      <c r="O19">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="P19">
+        <v>0.00176802111554464</v>
+      </c>
+      <c r="Q19">
+        <v>0.0730419496365</v>
+      </c>
+      <c r="R19">
+        <v>0.438251697819</v>
+      </c>
+      <c r="S19">
+        <v>0.0004163133974830464</v>
+      </c>
+      <c r="T19">
+        <v>0.0003170361133538434</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>24.2875365</v>
-      </c>
-      <c r="N16">
-        <v>48.575073</v>
-      </c>
-      <c r="O16">
-        <v>0.3039081579394173</v>
-      </c>
-      <c r="P16">
-        <v>0.225443475773544</v>
-      </c>
-      <c r="Q16">
-        <v>3.638305351081999</v>
-      </c>
-      <c r="R16">
-        <v>21.829832106492</v>
-      </c>
-      <c r="S16">
-        <v>0.01987933064204143</v>
-      </c>
-      <c r="T16">
-        <v>0.01575596440752057</v>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.6612465000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.322493</v>
+      </c>
+      <c r="I20">
+        <v>0.2468437584284291</v>
+      </c>
+      <c r="J20">
+        <v>0.1793169270244717</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>9.0545855</v>
+      </c>
+      <c r="N20">
+        <v>18.109171</v>
+      </c>
+      <c r="O20">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="P20">
+        <v>0.09661749912641458</v>
+      </c>
+      <c r="Q20">
+        <v>5.987312970825751</v>
+      </c>
+      <c r="R20">
+        <v>23.949251883303</v>
+      </c>
+      <c r="S20">
+        <v>0.0341255760160213</v>
+      </c>
+      <c r="T20">
+        <v>0.01732515304013825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.6612465000000001</v>
+      </c>
+      <c r="H21">
+        <v>1.322493</v>
+      </c>
+      <c r="I21">
+        <v>0.2468437584284291</v>
+      </c>
+      <c r="J21">
+        <v>0.1793169270244717</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.042821</v>
+      </c>
+      <c r="O21">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P21">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q21">
+        <v>0.009438412125499999</v>
+      </c>
+      <c r="R21">
+        <v>0.056630472753</v>
+      </c>
+      <c r="S21">
+        <v>5.379562618970052E-05</v>
+      </c>
+      <c r="T21">
+        <v>4.096710878326567E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.216728</v>
+      </c>
+      <c r="H22">
+        <v>0.650184</v>
+      </c>
+      <c r="I22">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J22">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.961497999999999</v>
+      </c>
+      <c r="N22">
+        <v>26.884494</v>
+      </c>
+      <c r="O22">
+        <v>0.1368263930819497</v>
+      </c>
+      <c r="P22">
+        <v>0.1434363050389826</v>
+      </c>
+      <c r="Q22">
+        <v>1.942207538544</v>
+      </c>
+      <c r="R22">
+        <v>17.479867846896</v>
+      </c>
+      <c r="S22">
+        <v>0.01106989918823834</v>
+      </c>
+      <c r="T22">
+        <v>0.01264512925265948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.216728</v>
+      </c>
+      <c r="H23">
+        <v>0.650184</v>
+      </c>
+      <c r="I23">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J23">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>47.354572</v>
+      </c>
+      <c r="N23">
+        <v>142.063716</v>
+      </c>
+      <c r="O23">
+        <v>0.7230214505096683</v>
+      </c>
+      <c r="P23">
+        <v>0.7579497126911668</v>
+      </c>
+      <c r="Q23">
+        <v>10.263061680416</v>
+      </c>
+      <c r="R23">
+        <v>92.367555123744</v>
+      </c>
+      <c r="S23">
+        <v>0.05849583832325513</v>
+      </c>
+      <c r="T23">
+        <v>0.06681970845101676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.216728</v>
+      </c>
+      <c r="H24">
+        <v>0.650184</v>
+      </c>
+      <c r="I24">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J24">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.110461</v>
+      </c>
+      <c r="N24">
+        <v>0.331383</v>
+      </c>
+      <c r="O24">
+        <v>0.00168654617857698</v>
+      </c>
+      <c r="P24">
+        <v>0.00176802111554464</v>
+      </c>
+      <c r="Q24">
+        <v>0.023939991608</v>
+      </c>
+      <c r="R24">
+        <v>0.215459924472</v>
+      </c>
+      <c r="S24">
+        <v>0.0001364495237550681</v>
+      </c>
+      <c r="T24">
+        <v>0.000155866086493354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.216728</v>
+      </c>
+      <c r="H25">
+        <v>0.650184</v>
+      </c>
+      <c r="I25">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J25">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>9.0545855</v>
+      </c>
+      <c r="N25">
+        <v>18.109171</v>
+      </c>
+      <c r="O25">
+        <v>0.1382476763167411</v>
+      </c>
+      <c r="P25">
+        <v>0.09661749912641458</v>
+      </c>
+      <c r="Q25">
+        <v>1.962382206244</v>
+      </c>
+      <c r="R25">
+        <v>11.774293237464</v>
+      </c>
+      <c r="S25">
+        <v>0.01118488769135302</v>
+      </c>
+      <c r="T25">
+        <v>0.008517653631625457</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.216728</v>
+      </c>
+      <c r="H26">
+        <v>0.650184</v>
+      </c>
+      <c r="I26">
+        <v>0.08090470660589748</v>
+      </c>
+      <c r="J26">
+        <v>0.08815849829109049</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.01427366666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.042821</v>
+      </c>
+      <c r="O26">
+        <v>0.0002179339130638713</v>
+      </c>
+      <c r="P26">
+        <v>0.0002284620278914037</v>
+      </c>
+      <c r="Q26">
+        <v>0.003093503229333333</v>
+      </c>
+      <c r="R26">
+        <v>0.027841529064</v>
+      </c>
+      <c r="S26">
+        <v>1.763187929590768E-05</v>
+      </c>
+      <c r="T26">
+        <v>2.014086929544338E-05</v>
       </c>
     </row>
   </sheetData>
